--- a/ProcessPerformanceModelTrainSave/scalar_result_nodes.xlsx
+++ b/ProcessPerformanceModelTrainSave/scalar_result_nodes.xlsx
@@ -61,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -75,6 +75,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,32 +104,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -453,7 +453,7 @@
     <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.9538987496454191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0.9427059719008167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.9652717531495748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0.9486403088390837</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0.9352943616568319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>0.9497275236434263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0.9583891248023483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.9555341866381816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.9749723714546479</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.9730087584296016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0.972500220034111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0.9724139969172036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0.969290589221399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.9500577657963865</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0.958562348158794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.971679993238474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.9733307456569777</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.956708323057634</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0.9731839356175458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0.9766938128745679</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0.9644193929712226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0.9755939547207747</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0.9699599852264617</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0.9762214573920949</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0.972605592321213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.9762840854893631</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0.9602563100738944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0.9736839334799523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21.75">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.9743183662170526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21.75">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.9750102106416304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21.75">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0.9757024474659131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.9750275649717598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0.976668048845913</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21.75">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.9770262692948308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.9788818360047447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="22.5">
       <c r="A37" s="2">
         <v>35</v>
       </c>
